--- a/expimp/estimate_material.xlsx
+++ b/expimp/estimate_material.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,17 +434,100 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>client_price</t>
+          <t>price</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>base_price</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>uuid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>770be96b-9efa-4edd-8d2d-9421c092532d</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>660000.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>dc71abbc-108b-419d-9988-9bbdf925bcf5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9dba22aa-1984-4811-aacc-f18314637b3f</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>833a5e28-6256-41c5-adca-526215312470</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>448000.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fbe8bda1-e78b-40dc-9691-35e5559415ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>833a5e28-6256-41c5-adca-526215312470</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>448000.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6d0246df-468b-4919-99c1-01d4a4927b52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>325c16c8-7841-4183-9d89-fe07130c5545</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>770be96b-9efa-4edd-8d2d-9421c092532d</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>660000.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3b0b7f1f-a10c-4aca-b5be-847dcc1d8c7b</t>
         </is>
       </c>
     </row>
